--- a/DBDefinition.xlsx
+++ b/DBDefinition.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\彰太\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.m\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{EE6DED81-615D-4761-A60F-B32CE48BC089}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,15 +406,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
+        </top>
+        <bottom style="thin">
           <color rgb="FF3F3F3F"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -425,13 +423,15 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
+        </left>
+        <right style="thin">
           <color rgb="FF3F3F3F"/>
-        </bottom>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -448,17 +448,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEB16AD4-27B9-4ABE-AC1C-1CFF66760AAE}" name="テーブル1" displayName="テーブル1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2" headerRowCellStyle="出力" dataCellStyle="出力">
-  <autoFilter ref="A1:H21" xr:uid="{95CA1D27-CA49-47E5-834B-1A3098EE48FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="出力" dataCellStyle="出力">
+  <autoFilter ref="A1:H21"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62252C39-0213-4522-AD55-F274487BF186}" name="別名" dataCellStyle="出力"/>
-    <tableColumn id="2" xr3:uid="{368E788E-532F-4384-BA8F-B94EBD6EA291}" name="型" dataCellStyle="出力"/>
-    <tableColumn id="3" xr3:uid="{47BD8BB9-E342-4DC8-8810-2F480E0BF16A}" name="サイズ" dataCellStyle="出力"/>
-    <tableColumn id="4" xr3:uid="{26375155-0100-47A9-8DDC-3EB646F08344}" name="NN" dataCellStyle="出力"/>
-    <tableColumn id="5" xr3:uid="{FB45C049-BA01-4681-8143-62BF8AACFC76}" name="PK" dataCellStyle="出力"/>
-    <tableColumn id="6" xr3:uid="{B46E94B2-28E1-4BC6-A7AF-259A700327F4}" name="CK" dataCellStyle="出力"/>
-    <tableColumn id="7" xr3:uid="{E1344D48-1E58-439B-8814-5EB0C13162A1}" name="FK" dataCellStyle="出力"/>
-    <tableColumn id="8" xr3:uid="{FBA3CEFB-6669-4230-B442-8CEF27DC81C6}" name="内容" dataCellStyle="出力"/>
+    <tableColumn id="1" name="別名" dataCellStyle="出力"/>
+    <tableColumn id="2" name="型" dataCellStyle="出力"/>
+    <tableColumn id="3" name="サイズ" dataCellStyle="出力"/>
+    <tableColumn id="4" name="NN" dataCellStyle="出力"/>
+    <tableColumn id="5" name="PK" dataCellStyle="出力"/>
+    <tableColumn id="6" name="CK" dataCellStyle="出力"/>
+    <tableColumn id="7" name="FK" dataCellStyle="出力"/>
+    <tableColumn id="8" name="内容" dataCellStyle="出力"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,10 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8140B5EA-9DEE-473E-BFB1-752767F4D676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -815,7 +817,9 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -904,7 +908,9 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -922,7 +928,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1033,7 +1041,9 @@
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -1127,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB88566-87C2-4C43-AB34-BFAE3716BFB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1140,7 +1150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15641D7E-2EFA-434D-B128-A7E3C763BB31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/DBDefinition.xlsx
+++ b/DBDefinition.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.m\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\彰太\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>別名</t>
     <rPh sb="0" eb="2">
@@ -109,42 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Content</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_th_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_user_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_content</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_file</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>con_state</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rv_User</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -282,13 +246,43 @@
     <rPh sb="4" eb="6">
       <t>ニチジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>res_th_id</t>
+  </si>
+  <si>
+    <t>res_id</t>
+  </si>
+  <si>
+    <t>res_user_name</t>
+  </si>
+  <si>
+    <t>res_date</t>
+  </si>
+  <si>
+    <t>res_file</t>
+  </si>
+  <si>
+    <t>res_state</t>
+  </si>
+  <si>
+    <t>Res</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>res_response</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,17 +442,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="出力" dataCellStyle="出力">
-  <autoFilter ref="A1:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="出力" dataCellStyle="出力">
+  <autoFilter ref="A1:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="別名" dataCellStyle="出力"/>
-    <tableColumn id="2" name="型" dataCellStyle="出力"/>
-    <tableColumn id="3" name="サイズ" dataCellStyle="出力"/>
-    <tableColumn id="4" name="NN" dataCellStyle="出力"/>
-    <tableColumn id="5" name="PK" dataCellStyle="出力"/>
-    <tableColumn id="6" name="CK" dataCellStyle="出力"/>
-    <tableColumn id="7" name="FK" dataCellStyle="出力"/>
-    <tableColumn id="8" name="内容" dataCellStyle="出力"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="別名" dataCellStyle="出力"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="型" dataCellStyle="出力"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="サイズ" dataCellStyle="出力"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="NN" dataCellStyle="出力"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PK" dataCellStyle="出力"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CK" dataCellStyle="出力"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FK" dataCellStyle="出力"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="内容" dataCellStyle="出力"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,11 +754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -827,14 +821,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="1">
         <v>100</v>
       </c>
@@ -843,7 +839,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -859,7 +855,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -875,7 +871,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -893,17 +889,17 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -918,12 +914,12 @@
         <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -938,12 +934,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -956,12 +952,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -979,7 +975,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -990,12 +986,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -1008,12 +1004,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -1026,17 +1022,17 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -1051,12 +1047,12 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -1071,12 +1067,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -1091,12 +1087,12 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -1107,12 +1103,12 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
@@ -1123,7 +1119,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1150,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/DBDefinition.xlsx
+++ b/DBDefinition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>User</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>res_th_id</t>
   </si>
   <si>
@@ -276,6 +272,10 @@
   </si>
   <si>
     <t>res_response</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rv_User</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -758,7 +758,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -894,12 +894,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
